--- a/Code/Results/Cases/Case_3_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9916205902735915</v>
+        <v>1.021714244151236</v>
       </c>
       <c r="D2">
-        <v>1.011225385406489</v>
+        <v>1.025837737684364</v>
       </c>
       <c r="E2">
-        <v>1.004718465323796</v>
+        <v>1.032018076925368</v>
       </c>
       <c r="F2">
-        <v>1.005679902107148</v>
+        <v>1.041893119061836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042212986857807</v>
+        <v>1.028200768471436</v>
       </c>
       <c r="J2">
-        <v>1.014054849579615</v>
+        <v>1.026904155658324</v>
       </c>
       <c r="K2">
-        <v>1.022530516978853</v>
+        <v>1.028662139382646</v>
       </c>
       <c r="L2">
-        <v>1.016112453517801</v>
+        <v>1.034824519679233</v>
       </c>
       <c r="M2">
-        <v>1.017060669991165</v>
+        <v>1.044671346844554</v>
       </c>
       <c r="N2">
-        <v>1.008734765165637</v>
+        <v>1.013042837993227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9958254455057807</v>
+        <v>1.022591839057063</v>
       </c>
       <c r="D3">
-        <v>1.014201694116624</v>
+        <v>1.026458477726111</v>
       </c>
       <c r="E3">
-        <v>1.008511020259243</v>
+        <v>1.032871157811663</v>
       </c>
       <c r="F3">
-        <v>1.010490120257426</v>
+        <v>1.042998839684944</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04322338288655</v>
+        <v>1.028318061537426</v>
       </c>
       <c r="J3">
-        <v>1.016430563650266</v>
+        <v>1.027419862389473</v>
       </c>
       <c r="K3">
-        <v>1.024656030018296</v>
+        <v>1.029090773356266</v>
       </c>
       <c r="L3">
-        <v>1.01903614702529</v>
+        <v>1.0354861664013</v>
       </c>
       <c r="M3">
-        <v>1.020990514730782</v>
+        <v>1.045587014308245</v>
       </c>
       <c r="N3">
-        <v>1.009523291766351</v>
+        <v>1.013213480071132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9984898911417216</v>
+        <v>1.023159819975978</v>
       </c>
       <c r="D4">
-        <v>1.016086619050641</v>
+        <v>1.02685967839922</v>
       </c>
       <c r="E4">
-        <v>1.010920032743424</v>
+        <v>1.033423730624165</v>
       </c>
       <c r="F4">
-        <v>1.013546433853192</v>
+        <v>1.04371539572731</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043847496302035</v>
+        <v>1.028391943023667</v>
       </c>
       <c r="J4">
-        <v>1.017932304699162</v>
+        <v>1.027753059549461</v>
       </c>
       <c r="K4">
-        <v>1.025994693547558</v>
+        <v>1.029366979940036</v>
       </c>
       <c r="L4">
-        <v>1.020888425222234</v>
+        <v>1.035914227949615</v>
       </c>
       <c r="M4">
-        <v>1.023484069024355</v>
+        <v>1.046180004296005</v>
       </c>
       <c r="N4">
-        <v>1.010021693577357</v>
+        <v>1.013323711471624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9995969770362397</v>
+        <v>1.023398626336766</v>
       </c>
       <c r="D5">
-        <v>1.016869498746038</v>
+        <v>1.027028231471929</v>
       </c>
       <c r="E5">
-        <v>1.011922360837634</v>
+        <v>1.03365616800296</v>
       </c>
       <c r="F5">
-        <v>1.014818342071964</v>
+        <v>1.044016893640168</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044102885144886</v>
+        <v>1.028422519552879</v>
       </c>
       <c r="J5">
-        <v>1.018555374378816</v>
+        <v>1.027893015003046</v>
       </c>
       <c r="K5">
-        <v>1.026548894360511</v>
+        <v>1.02948282104907</v>
       </c>
       <c r="L5">
-        <v>1.021657945656804</v>
+        <v>1.036094167679245</v>
       </c>
       <c r="M5">
-        <v>1.024520952596751</v>
+        <v>1.046429414038582</v>
       </c>
       <c r="N5">
-        <v>1.010228467543025</v>
+        <v>1.013370007990928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9997821092070081</v>
+        <v>1.023438724536165</v>
       </c>
       <c r="D6">
-        <v>1.017000395419413</v>
+        <v>1.027056525676727</v>
       </c>
       <c r="E6">
-        <v>1.01209005515214</v>
+        <v>1.033695203186073</v>
       </c>
       <c r="F6">
-        <v>1.015031154613577</v>
+        <v>1.04406753155186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044145359535051</v>
+        <v>1.028427625123673</v>
       </c>
       <c r="J6">
-        <v>1.018659512708604</v>
+        <v>1.027916507035489</v>
       </c>
       <c r="K6">
-        <v>1.026641450258784</v>
+        <v>1.02950225505178</v>
       </c>
       <c r="L6">
-        <v>1.021786621539575</v>
+        <v>1.036124379304306</v>
       </c>
       <c r="M6">
-        <v>1.02469439229361</v>
+        <v>1.046471297848759</v>
       </c>
       <c r="N6">
-        <v>1.01026302647571</v>
+        <v>1.013377778744665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9985047347637925</v>
+        <v>1.023163010812894</v>
       </c>
       <c r="D7">
-        <v>1.016097117088193</v>
+        <v>1.026861931054591</v>
       </c>
       <c r="E7">
-        <v>1.010933466384562</v>
+        <v>1.033426835931925</v>
       </c>
       <c r="F7">
-        <v>1.013563479464939</v>
+        <v>1.043719423345649</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043850936128838</v>
+        <v>1.028392353488674</v>
       </c>
       <c r="J7">
-        <v>1.017940662344991</v>
+        <v>1.027754930116392</v>
       </c>
       <c r="K7">
-        <v>1.026002132223092</v>
+        <v>1.029368528901222</v>
       </c>
       <c r="L7">
-        <v>1.02089874327785</v>
+        <v>1.035916632382552</v>
       </c>
       <c r="M7">
-        <v>1.023497968217514</v>
+        <v>1.04618333646371</v>
       </c>
       <c r="N7">
-        <v>1.010024467223247</v>
+        <v>1.013324330264329</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9930535919178406</v>
+        <v>1.022010806268796</v>
       </c>
       <c r="D8">
-        <v>1.012239881447244</v>
+        <v>1.026047613869989</v>
       </c>
       <c r="E8">
-        <v>1.006009720727904</v>
+        <v>1.03230626031363</v>
       </c>
       <c r="F8">
-        <v>1.007317482984319</v>
+        <v>1.042266578117554</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042560673032873</v>
+        <v>1.028240824910622</v>
       </c>
       <c r="J8">
-        <v>1.014865231683092</v>
+        <v>1.027078543984761</v>
       </c>
       <c r="K8">
-        <v>1.023256569455838</v>
+        <v>1.028807235250598</v>
       </c>
       <c r="L8">
-        <v>1.017108897271023</v>
+        <v>1.0350481397701</v>
       </c>
       <c r="M8">
-        <v>1.018399238294463</v>
+        <v>1.044980698489189</v>
       </c>
       <c r="N8">
-        <v>1.009003748258531</v>
+        <v>1.013100545457042</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9829948179887833</v>
+        <v>1.019981431230811</v>
       </c>
       <c r="D9">
-        <v>1.005117007141705</v>
+        <v>1.024609235065134</v>
       </c>
       <c r="E9">
-        <v>0.9969716245465762</v>
+        <v>1.030336103050927</v>
       </c>
       <c r="F9">
-        <v>0.9958572427195514</v>
+        <v>1.039714801570973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040054143177895</v>
+        <v>1.027958417505298</v>
       </c>
       <c r="J9">
-        <v>1.009162702386215</v>
+        <v>1.025882884284767</v>
       </c>
       <c r="K9">
-        <v>1.01812760645109</v>
+        <v>1.027809424282063</v>
       </c>
       <c r="L9">
-        <v>1.010114026860205</v>
+        <v>1.033517268568137</v>
       </c>
       <c r="M9">
-        <v>1.009017892774002</v>
+        <v>1.042865308618442</v>
       </c>
       <c r="N9">
-        <v>1.00711084346906</v>
+        <v>1.012704803976593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759524690032405</v>
+        <v>1.018629223940116</v>
       </c>
       <c r="D10">
-        <v>1.000130967632988</v>
+        <v>1.023648094344102</v>
       </c>
       <c r="E10">
-        <v>0.9906777228593489</v>
+        <v>1.029025724452769</v>
       </c>
       <c r="F10">
-        <v>0.9878770099031667</v>
+        <v>1.038019270560534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038218132593207</v>
+        <v>1.027759845307528</v>
       </c>
       <c r="J10">
-        <v>1.005153775513842</v>
+        <v>1.025083295781817</v>
       </c>
       <c r="K10">
-        <v>1.014497857821328</v>
+        <v>1.027138413199106</v>
       </c>
       <c r="L10">
-        <v>1.005217358848265</v>
+        <v>1.032496427768453</v>
       </c>
       <c r="M10">
-        <v>1.002468653671996</v>
+        <v>1.041457669999093</v>
       </c>
       <c r="N10">
-        <v>1.005780047860801</v>
+        <v>1.012440053769859</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728155389109013</v>
+        <v>1.018043884986323</v>
       </c>
       <c r="D11">
-        <v>0.9979112168733216</v>
+        <v>1.023231402966648</v>
       </c>
       <c r="E11">
-        <v>0.9878826187254032</v>
+        <v>1.02845905703156</v>
       </c>
       <c r="F11">
-        <v>0.984332393820222</v>
+        <v>1.037286439437866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037381945228451</v>
+        <v>1.027671428477135</v>
       </c>
       <c r="J11">
-        <v>1.003364644026105</v>
+        <v>1.02473648877481</v>
       </c>
       <c r="K11">
-        <v>1.012872632382788</v>
+        <v>1.026846496367999</v>
       </c>
       <c r="L11">
-        <v>1.003036727101177</v>
+        <v>1.032054343102381</v>
       </c>
       <c r="M11">
-        <v>0.999555952844647</v>
+        <v>1.0408487804905</v>
       </c>
       <c r="N11">
-        <v>1.00518614055392</v>
+        <v>1.012325199615195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716364818589697</v>
+        <v>1.017826491464394</v>
       </c>
       <c r="D12">
-        <v>0.9970771683133148</v>
+        <v>1.023076550033601</v>
       </c>
       <c r="E12">
-        <v>0.9868333464838074</v>
+        <v>1.028248683163292</v>
       </c>
       <c r="F12">
-        <v>0.9830016008358701</v>
+        <v>1.03701443627499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037064972336086</v>
+        <v>1.027638221669633</v>
       </c>
       <c r="J12">
-        <v>1.002691708319627</v>
+        <v>1.024607583041317</v>
       </c>
       <c r="K12">
-        <v>1.012260580217508</v>
+        <v>1.026737861604441</v>
       </c>
       <c r="L12">
-        <v>1.002217222199237</v>
+        <v>1.031890126032672</v>
       </c>
       <c r="M12">
-        <v>0.9984618736629119</v>
+        <v>1.040622706957577</v>
       </c>
       <c r="N12">
-        <v>1.004962761201829</v>
+        <v>1.012282505625365</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9718900327878476</v>
+        <v>1.01787312185518</v>
       </c>
       <c r="D13">
-        <v>0.9972565128140289</v>
+        <v>1.023109769891118</v>
       </c>
       <c r="E13">
-        <v>0.9870589281951303</v>
+        <v>1.028293804000962</v>
       </c>
       <c r="F13">
-        <v>0.9832877144755542</v>
+        <v>1.037072772678994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037133255781138</v>
+        <v>1.027645361140715</v>
       </c>
       <c r="J13">
-        <v>1.00283644047886</v>
+        <v>1.024635237642794</v>
       </c>
       <c r="K13">
-        <v>1.012392251844975</v>
+        <v>1.026761173336291</v>
       </c>
       <c r="L13">
-        <v>1.002393447293404</v>
+        <v>1.031925351459466</v>
       </c>
       <c r="M13">
-        <v>0.9986971187603979</v>
+        <v>1.040671196178079</v>
       </c>
       <c r="N13">
-        <v>1.005010804488983</v>
+        <v>1.012291665075618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9727183647313257</v>
+        <v>1.018025914604534</v>
       </c>
       <c r="D14">
-        <v>0.9978424710950632</v>
+        <v>1.02321860429987</v>
       </c>
       <c r="E14">
-        <v>0.9877961142581996</v>
+        <v>1.02844166517761</v>
       </c>
       <c r="F14">
-        <v>0.9842226836868684</v>
+        <v>1.03726395142648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037355875348244</v>
+        <v>1.027668691030585</v>
       </c>
       <c r="J14">
-        <v>1.003309192002446</v>
+        <v>1.02472583513899</v>
       </c>
       <c r="K14">
-        <v>1.012822212716572</v>
+        <v>1.026837520736444</v>
       </c>
       <c r="L14">
-        <v>1.002969183543423</v>
+        <v>1.032040769008351</v>
       </c>
       <c r="M14">
-        <v>0.9994657680198176</v>
+        <v>1.040830091235706</v>
       </c>
       <c r="N14">
-        <v>1.005167733305715</v>
+        <v>1.012321671168361</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9732268685580873</v>
+        <v>1.018120058925332</v>
       </c>
       <c r="D15">
-        <v>0.9982022233647525</v>
+        <v>1.023285650853295</v>
       </c>
       <c r="E15">
-        <v>0.9882488378449223</v>
+        <v>1.028532782157986</v>
       </c>
       <c r="F15">
-        <v>0.9847968480115351</v>
+        <v>1.037381769880936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037492187913528</v>
+        <v>1.027683017021596</v>
       </c>
       <c r="J15">
-        <v>1.003599348748179</v>
+        <v>1.024781643856691</v>
       </c>
       <c r="K15">
-        <v>1.013086006292649</v>
+        <v>1.026884533911313</v>
       </c>
       <c r="L15">
-        <v>1.003322637850231</v>
+        <v>1.032111880651652</v>
       </c>
       <c r="M15">
-        <v>0.9999377257007291</v>
+        <v>1.04092800435887</v>
       </c>
       <c r="N15">
-        <v>1.005264050729158</v>
+        <v>1.012340154676683</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9761587528420476</v>
+        <v>1.018668074748758</v>
       </c>
       <c r="D16">
-        <v>1.000276970984324</v>
+        <v>1.023675738145677</v>
       </c>
       <c r="E16">
-        <v>0.9908617071837179</v>
+        <v>1.029063347894142</v>
       </c>
       <c r="F16">
-        <v>0.988110311747428</v>
+        <v>1.038067934560786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038272744135044</v>
+        <v>1.027765662032011</v>
       </c>
       <c r="J16">
-        <v>1.005271361238082</v>
+        <v>1.025106300084319</v>
       </c>
       <c r="K16">
-        <v>1.014604563388378</v>
+        <v>1.027157758106464</v>
       </c>
       <c r="L16">
-        <v>1.005360770682445</v>
+        <v>1.032525766418207</v>
       </c>
       <c r="M16">
-        <v>1.002660288497148</v>
+        <v>1.041498093283502</v>
       </c>
       <c r="N16">
-        <v>1.00581908115456</v>
+        <v>1.01244767174945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9779739226472586</v>
+        <v>1.019011878368959</v>
       </c>
       <c r="D17">
-        <v>1.001561859563993</v>
+        <v>1.023920293883821</v>
       </c>
       <c r="E17">
-        <v>0.9924816198555183</v>
+        <v>1.029396355429605</v>
       </c>
       <c r="F17">
-        <v>0.9901643688335392</v>
+        <v>1.038498708246974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038751211690445</v>
+        <v>1.027816852033492</v>
       </c>
       <c r="J17">
-        <v>1.006305660634282</v>
+        <v>1.02530979377639</v>
       </c>
       <c r="K17">
-        <v>1.015542559032512</v>
+        <v>1.027328779904833</v>
       </c>
       <c r="L17">
-        <v>1.006622770330365</v>
+        <v>1.032785372276715</v>
       </c>
       <c r="M17">
-        <v>1.004347078444316</v>
+        <v>1.041855863584007</v>
       </c>
       <c r="N17">
-        <v>1.006162424430324</v>
+        <v>1.012515056898161</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9790242839148862</v>
+        <v>1.019212430090238</v>
       </c>
       <c r="D18">
-        <v>1.002305479374155</v>
+        <v>1.024062889688603</v>
       </c>
       <c r="E18">
-        <v>0.9934197922112566</v>
+        <v>1.029590663943324</v>
       </c>
       <c r="F18">
-        <v>0.9913539216584606</v>
+        <v>1.038750100963661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039026333601257</v>
+        <v>1.027846475420643</v>
       </c>
       <c r="J18">
-        <v>1.006903839689094</v>
+        <v>1.025428432187547</v>
       </c>
       <c r="K18">
-        <v>1.016084535553432</v>
+        <v>1.027428402284406</v>
       </c>
       <c r="L18">
-        <v>1.007353083589396</v>
+        <v>1.032936790721126</v>
       </c>
       <c r="M18">
-        <v>1.005323585496838</v>
+        <v>1.042064605412822</v>
       </c>
       <c r="N18">
-        <v>1.006360995096452</v>
+        <v>1.012554340693187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9793810264814092</v>
+        <v>1.01928081587741</v>
       </c>
       <c r="D19">
-        <v>1.002558056845894</v>
+        <v>1.024111502742207</v>
       </c>
       <c r="E19">
-        <v>0.9937385654635364</v>
+        <v>1.029656930106545</v>
       </c>
       <c r="F19">
-        <v>0.9917581018977697</v>
+        <v>1.038835841358549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039119476867188</v>
+        <v>1.027856536367336</v>
       </c>
       <c r="J19">
-        <v>1.007106947436627</v>
+        <v>1.025468875289347</v>
       </c>
       <c r="K19">
-        <v>1.016268473292282</v>
+        <v>1.027462348560192</v>
       </c>
       <c r="L19">
-        <v>1.007601132816386</v>
+        <v>1.032988419576379</v>
       </c>
       <c r="M19">
-        <v>1.005655317642176</v>
+        <v>1.042135791210806</v>
       </c>
       <c r="N19">
-        <v>1.006428418515857</v>
+        <v>1.012567731909826</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9777800455674807</v>
+        <v>1.01897498974013</v>
       </c>
       <c r="D20">
-        <v>1.001424609458075</v>
+        <v>1.023894060467789</v>
       </c>
       <c r="E20">
-        <v>0.992308515002731</v>
+        <v>1.029360619535346</v>
       </c>
       <c r="F20">
-        <v>0.9899448771158635</v>
+        <v>1.038452476883963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038700287584189</v>
+        <v>1.027811384119273</v>
       </c>
       <c r="J20">
-        <v>1.00619522129978</v>
+        <v>1.025287966616192</v>
       </c>
       <c r="K20">
-        <v>1.015442454995458</v>
+        <v>1.027310444502654</v>
       </c>
       <c r="L20">
-        <v>1.006487971769099</v>
+        <v>1.0327575195622</v>
       </c>
       <c r="M20">
-        <v>1.004166868459968</v>
+        <v>1.041817471955899</v>
       </c>
       <c r="N20">
-        <v>1.006125763190679</v>
+        <v>1.012507829260667</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724748302067114</v>
+        <v>1.017980920182731</v>
       </c>
       <c r="D21">
-        <v>0.9976701875704457</v>
+        <v>1.02318655734239</v>
       </c>
       <c r="E21">
-        <v>0.9875793409434923</v>
+        <v>1.02839812065497</v>
       </c>
       <c r="F21">
-        <v>0.9839477560714021</v>
+        <v>1.037207648441028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03729049701388</v>
+        <v>1.027661831025151</v>
       </c>
       <c r="J21">
-        <v>1.003170212719309</v>
+        <v>1.024699158805494</v>
       </c>
       <c r="K21">
-        <v>1.012695833804876</v>
+        <v>1.026815043948112</v>
       </c>
       <c r="L21">
-        <v>1.002799910213755</v>
+        <v>1.032006781606406</v>
       </c>
       <c r="M21">
-        <v>0.999239761255868</v>
+        <v>1.040783297968024</v>
       </c>
       <c r="N21">
-        <v>1.005121599325715</v>
+        <v>1.012312836003719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9690586442708622</v>
+        <v>1.017356068392842</v>
       </c>
       <c r="D22">
-        <v>0.9952542502454448</v>
+        <v>1.022741287726856</v>
       </c>
       <c r="E22">
-        <v>0.9845417070331398</v>
+        <v>1.027793605927109</v>
       </c>
       <c r="F22">
-        <v>0.9800947509538039</v>
+        <v>1.036426150005383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036367114948636</v>
+        <v>1.027565690475808</v>
       </c>
       <c r="J22">
-        <v>1.001219624114128</v>
+        <v>1.024328453884678</v>
       </c>
       <c r="K22">
-        <v>1.010920311268837</v>
+        <v>1.026502387084785</v>
       </c>
       <c r="L22">
-        <v>1.000425744123184</v>
+        <v>1.031534722010906</v>
       </c>
       <c r="M22">
-        <v>0.9960711238915921</v>
+        <v>1.040133622637817</v>
       </c>
       <c r="N22">
-        <v>1.004474115488074</v>
+        <v>1.012190050782426</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.97087751755855</v>
+        <v>1.017687298717018</v>
       </c>
       <c r="D23">
-        <v>0.9965403765508855</v>
+        <v>1.022977374216736</v>
       </c>
       <c r="E23">
-        <v>0.9861582977777144</v>
+        <v>1.028114008941824</v>
       </c>
       <c r="F23">
-        <v>0.9821453835037079</v>
+        <v>1.036840325480259</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036860189970662</v>
+        <v>1.027616856198664</v>
       </c>
       <c r="J23">
-        <v>1.002258410783402</v>
+        <v>1.024525018471667</v>
       </c>
       <c r="K23">
-        <v>1.011866273562023</v>
+        <v>1.026668243761449</v>
       </c>
       <c r="L23">
-        <v>1.00168974003812</v>
+        <v>1.031784973288884</v>
       </c>
       <c r="M23">
-        <v>0.9977578081083055</v>
+        <v>1.040477975304275</v>
       </c>
       <c r="N23">
-        <v>1.004818930434265</v>
+        <v>1.012255158993906</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9778676761707541</v>
+        <v>1.018991658071525</v>
       </c>
       <c r="D24">
-        <v>1.001486644872531</v>
+        <v>1.023905914372144</v>
       </c>
       <c r="E24">
-        <v>0.9923867542844891</v>
+        <v>1.029376766828899</v>
       </c>
       <c r="F24">
-        <v>0.990044082322072</v>
+        <v>1.038473366446127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038723310219978</v>
+        <v>1.027813855560131</v>
       </c>
       <c r="J24">
-        <v>1.006245139846378</v>
+        <v>1.0252978295435</v>
       </c>
       <c r="K24">
-        <v>1.015487703562492</v>
+        <v>1.027318729888819</v>
       </c>
       <c r="L24">
-        <v>1.006548899295693</v>
+        <v>1.032770105021301</v>
       </c>
       <c r="M24">
-        <v>1.00424832032152</v>
+        <v>1.041834819293297</v>
       </c>
       <c r="N24">
-        <v>1.006142334058052</v>
+        <v>1.012511095183306</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9856521042593898</v>
+        <v>1.02050595312487</v>
       </c>
       <c r="D25">
-        <v>1.00699888138357</v>
+        <v>1.024981489057416</v>
       </c>
       <c r="E25">
-        <v>0.9993535682976558</v>
+        <v>1.030844902080848</v>
       </c>
       <c r="F25">
-        <v>0.9988772394892313</v>
+        <v>1.040373504768707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040730572172251</v>
+        <v>1.02803324576764</v>
       </c>
       <c r="J25">
-        <v>1.010672171863065</v>
+        <v>1.026192432829775</v>
       </c>
       <c r="K25">
-        <v>1.019489511679495</v>
+        <v>1.028068410558048</v>
       </c>
       <c r="L25">
-        <v>1.011961927580969</v>
+        <v>1.033913085691029</v>
       </c>
       <c r="M25">
-        <v>1.011493009908069</v>
+        <v>1.043411729855731</v>
       </c>
       <c r="N25">
-        <v>1.007611918404857</v>
+        <v>1.012807276805556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021714244151236</v>
+        <v>0.9916205902735915</v>
       </c>
       <c r="D2">
-        <v>1.025837737684364</v>
+        <v>1.011225385406489</v>
       </c>
       <c r="E2">
-        <v>1.032018076925368</v>
+        <v>1.004718465323796</v>
       </c>
       <c r="F2">
-        <v>1.041893119061836</v>
+        <v>1.005679902107148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028200768471436</v>
+        <v>1.042212986857808</v>
       </c>
       <c r="J2">
-        <v>1.026904155658324</v>
+        <v>1.014054849579615</v>
       </c>
       <c r="K2">
-        <v>1.028662139382646</v>
+        <v>1.022530516978853</v>
       </c>
       <c r="L2">
-        <v>1.034824519679233</v>
+        <v>1.016112453517801</v>
       </c>
       <c r="M2">
-        <v>1.044671346844554</v>
+        <v>1.017060669991165</v>
       </c>
       <c r="N2">
-        <v>1.013042837993227</v>
+        <v>1.008734765165637</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022591839057063</v>
+        <v>0.9958254455057808</v>
       </c>
       <c r="D3">
-        <v>1.026458477726111</v>
+        <v>1.014201694116624</v>
       </c>
       <c r="E3">
-        <v>1.032871157811663</v>
+        <v>1.008511020259243</v>
       </c>
       <c r="F3">
-        <v>1.042998839684944</v>
+        <v>1.010490120257426</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028318061537426</v>
+        <v>1.043223382886551</v>
       </c>
       <c r="J3">
-        <v>1.027419862389473</v>
+        <v>1.016430563650266</v>
       </c>
       <c r="K3">
-        <v>1.029090773356266</v>
+        <v>1.024656030018296</v>
       </c>
       <c r="L3">
-        <v>1.0354861664013</v>
+        <v>1.01903614702529</v>
       </c>
       <c r="M3">
-        <v>1.045587014308245</v>
+        <v>1.020990514730782</v>
       </c>
       <c r="N3">
-        <v>1.013213480071132</v>
+        <v>1.009523291766351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023159819975978</v>
+        <v>0.9984898911417218</v>
       </c>
       <c r="D4">
-        <v>1.02685967839922</v>
+        <v>1.016086619050641</v>
       </c>
       <c r="E4">
-        <v>1.033423730624165</v>
+        <v>1.010920032743424</v>
       </c>
       <c r="F4">
-        <v>1.04371539572731</v>
+        <v>1.013546433853192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028391943023667</v>
+        <v>1.043847496302035</v>
       </c>
       <c r="J4">
-        <v>1.027753059549461</v>
+        <v>1.017932304699162</v>
       </c>
       <c r="K4">
-        <v>1.029366979940036</v>
+        <v>1.025994693547558</v>
       </c>
       <c r="L4">
-        <v>1.035914227949615</v>
+        <v>1.020888425222234</v>
       </c>
       <c r="M4">
-        <v>1.046180004296005</v>
+        <v>1.023484069024355</v>
       </c>
       <c r="N4">
-        <v>1.013323711471624</v>
+        <v>1.010021693577357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023398626336766</v>
+        <v>0.9995969770362398</v>
       </c>
       <c r="D5">
-        <v>1.027028231471929</v>
+        <v>1.016869498746038</v>
       </c>
       <c r="E5">
-        <v>1.03365616800296</v>
+        <v>1.011922360837634</v>
       </c>
       <c r="F5">
-        <v>1.044016893640168</v>
+        <v>1.014818342071964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028422519552879</v>
+        <v>1.044102885144886</v>
       </c>
       <c r="J5">
-        <v>1.027893015003046</v>
+        <v>1.018555374378816</v>
       </c>
       <c r="K5">
-        <v>1.02948282104907</v>
+        <v>1.026548894360511</v>
       </c>
       <c r="L5">
-        <v>1.036094167679245</v>
+        <v>1.021657945656805</v>
       </c>
       <c r="M5">
-        <v>1.046429414038582</v>
+        <v>1.024520952596752</v>
       </c>
       <c r="N5">
-        <v>1.013370007990928</v>
+        <v>1.010228467543025</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023438724536165</v>
+        <v>0.9997821092070083</v>
       </c>
       <c r="D6">
-        <v>1.027056525676727</v>
+        <v>1.017000395419414</v>
       </c>
       <c r="E6">
-        <v>1.033695203186073</v>
+        <v>1.012090055152141</v>
       </c>
       <c r="F6">
-        <v>1.04406753155186</v>
+        <v>1.015031154613577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028427625123673</v>
+        <v>1.044145359535051</v>
       </c>
       <c r="J6">
-        <v>1.027916507035489</v>
+        <v>1.018659512708605</v>
       </c>
       <c r="K6">
-        <v>1.02950225505178</v>
+        <v>1.026641450258784</v>
       </c>
       <c r="L6">
-        <v>1.036124379304306</v>
+        <v>1.021786621539575</v>
       </c>
       <c r="M6">
-        <v>1.046471297848759</v>
+        <v>1.02469439229361</v>
       </c>
       <c r="N6">
-        <v>1.013377778744665</v>
+        <v>1.01026302647571</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023163010812894</v>
+        <v>0.9985047347637924</v>
       </c>
       <c r="D7">
-        <v>1.026861931054591</v>
+        <v>1.016097117088193</v>
       </c>
       <c r="E7">
-        <v>1.033426835931925</v>
+        <v>1.010933466384562</v>
       </c>
       <c r="F7">
-        <v>1.043719423345649</v>
+        <v>1.013563479464939</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028392353488674</v>
+        <v>1.043850936128838</v>
       </c>
       <c r="J7">
-        <v>1.027754930116392</v>
+        <v>1.017940662344991</v>
       </c>
       <c r="K7">
-        <v>1.029368528901222</v>
+        <v>1.026002132223092</v>
       </c>
       <c r="L7">
-        <v>1.035916632382552</v>
+        <v>1.02089874327785</v>
       </c>
       <c r="M7">
-        <v>1.04618333646371</v>
+        <v>1.023497968217514</v>
       </c>
       <c r="N7">
-        <v>1.013324330264329</v>
+        <v>1.010024467223247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022010806268796</v>
+        <v>0.9930535919178405</v>
       </c>
       <c r="D8">
-        <v>1.026047613869989</v>
+        <v>1.012239881447244</v>
       </c>
       <c r="E8">
-        <v>1.03230626031363</v>
+        <v>1.006009720727904</v>
       </c>
       <c r="F8">
-        <v>1.042266578117554</v>
+        <v>1.007317482984319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028240824910622</v>
+        <v>1.042560673032873</v>
       </c>
       <c r="J8">
-        <v>1.027078543984761</v>
+        <v>1.014865231683092</v>
       </c>
       <c r="K8">
-        <v>1.028807235250598</v>
+        <v>1.023256569455838</v>
       </c>
       <c r="L8">
-        <v>1.0350481397701</v>
+        <v>1.017108897271023</v>
       </c>
       <c r="M8">
-        <v>1.044980698489189</v>
+        <v>1.018399238294463</v>
       </c>
       <c r="N8">
-        <v>1.013100545457042</v>
+        <v>1.009003748258531</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019981431230811</v>
+        <v>0.982994817988784</v>
       </c>
       <c r="D9">
-        <v>1.024609235065134</v>
+        <v>1.005117007141705</v>
       </c>
       <c r="E9">
-        <v>1.030336103050927</v>
+        <v>0.9969716245465765</v>
       </c>
       <c r="F9">
-        <v>1.039714801570973</v>
+        <v>0.9958572427195519</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027958417505298</v>
+        <v>1.040054143177896</v>
       </c>
       <c r="J9">
-        <v>1.025882884284767</v>
+        <v>1.009162702386216</v>
       </c>
       <c r="K9">
-        <v>1.027809424282063</v>
+        <v>1.01812760645109</v>
       </c>
       <c r="L9">
-        <v>1.033517268568137</v>
+        <v>1.010114026860206</v>
       </c>
       <c r="M9">
-        <v>1.042865308618442</v>
+        <v>1.009017892774003</v>
       </c>
       <c r="N9">
-        <v>1.012704803976593</v>
+        <v>1.00711084346906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018629223940116</v>
+        <v>0.9759524690032398</v>
       </c>
       <c r="D10">
-        <v>1.023648094344102</v>
+        <v>1.000130967632987</v>
       </c>
       <c r="E10">
-        <v>1.029025724452769</v>
+        <v>0.990677722859348</v>
       </c>
       <c r="F10">
-        <v>1.038019270560534</v>
+        <v>0.9878770099031656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027759845307528</v>
+        <v>1.038218132593207</v>
       </c>
       <c r="J10">
-        <v>1.025083295781817</v>
+        <v>1.005153775513841</v>
       </c>
       <c r="K10">
-        <v>1.027138413199106</v>
+        <v>1.014497857821327</v>
       </c>
       <c r="L10">
-        <v>1.032496427768453</v>
+        <v>1.005217358848264</v>
       </c>
       <c r="M10">
-        <v>1.041457669999093</v>
+        <v>1.002468653671995</v>
       </c>
       <c r="N10">
-        <v>1.012440053769859</v>
+        <v>1.005780047860801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018043884986323</v>
+        <v>0.9728155389109016</v>
       </c>
       <c r="D11">
-        <v>1.023231402966648</v>
+        <v>0.997911216873322</v>
       </c>
       <c r="E11">
-        <v>1.02845905703156</v>
+        <v>0.9878826187254034</v>
       </c>
       <c r="F11">
-        <v>1.037286439437866</v>
+        <v>0.9843323938202225</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027671428477135</v>
+        <v>1.037381945228451</v>
       </c>
       <c r="J11">
-        <v>1.02473648877481</v>
+        <v>1.003364644026105</v>
       </c>
       <c r="K11">
-        <v>1.026846496367999</v>
+        <v>1.012872632382788</v>
       </c>
       <c r="L11">
-        <v>1.032054343102381</v>
+        <v>1.003036727101178</v>
       </c>
       <c r="M11">
-        <v>1.0408487804905</v>
+        <v>0.9995559528446475</v>
       </c>
       <c r="N11">
-        <v>1.012325199615195</v>
+        <v>1.00518614055392</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017826491464394</v>
+        <v>0.97163648185897</v>
       </c>
       <c r="D12">
-        <v>1.023076550033601</v>
+        <v>0.9970771683133152</v>
       </c>
       <c r="E12">
-        <v>1.028248683163292</v>
+        <v>0.9868333464838079</v>
       </c>
       <c r="F12">
-        <v>1.03701443627499</v>
+        <v>0.9830016008358707</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027638221669633</v>
+        <v>1.037064972336087</v>
       </c>
       <c r="J12">
-        <v>1.024607583041317</v>
+        <v>1.002691708319628</v>
       </c>
       <c r="K12">
-        <v>1.026737861604441</v>
+        <v>1.012260580217509</v>
       </c>
       <c r="L12">
-        <v>1.031890126032672</v>
+        <v>1.002217222199237</v>
       </c>
       <c r="M12">
-        <v>1.040622706957577</v>
+        <v>0.9984618736629124</v>
       </c>
       <c r="N12">
-        <v>1.012282505625365</v>
+        <v>1.004962761201829</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01787312185518</v>
+        <v>0.9718900327878469</v>
       </c>
       <c r="D13">
-        <v>1.023109769891118</v>
+        <v>0.9972565128140287</v>
       </c>
       <c r="E13">
-        <v>1.028293804000962</v>
+        <v>0.98705892819513</v>
       </c>
       <c r="F13">
-        <v>1.037072772678994</v>
+        <v>0.9832877144755536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027645361140715</v>
+        <v>1.037133255781138</v>
       </c>
       <c r="J13">
-        <v>1.024635237642794</v>
+        <v>1.00283644047886</v>
       </c>
       <c r="K13">
-        <v>1.026761173336291</v>
+        <v>1.012392251844975</v>
       </c>
       <c r="L13">
-        <v>1.031925351459466</v>
+        <v>1.002393447293404</v>
       </c>
       <c r="M13">
-        <v>1.040671196178079</v>
+        <v>0.9986971187603974</v>
       </c>
       <c r="N13">
-        <v>1.012291665075618</v>
+        <v>1.005010804488983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018025914604534</v>
+        <v>0.9727183647313257</v>
       </c>
       <c r="D14">
-        <v>1.02321860429987</v>
+        <v>0.9978424710950631</v>
       </c>
       <c r="E14">
-        <v>1.02844166517761</v>
+        <v>0.9877961142581996</v>
       </c>
       <c r="F14">
-        <v>1.03726395142648</v>
+        <v>0.9842226836868688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027668691030585</v>
+        <v>1.037355875348244</v>
       </c>
       <c r="J14">
-        <v>1.02472583513899</v>
+        <v>1.003309192002446</v>
       </c>
       <c r="K14">
-        <v>1.026837520736444</v>
+        <v>1.012822212716572</v>
       </c>
       <c r="L14">
-        <v>1.032040769008351</v>
+        <v>1.002969183543424</v>
       </c>
       <c r="M14">
-        <v>1.040830091235706</v>
+        <v>0.9994657680198178</v>
       </c>
       <c r="N14">
-        <v>1.012321671168361</v>
+        <v>1.005167733305715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018120058925332</v>
+        <v>0.9732268685580869</v>
       </c>
       <c r="D15">
-        <v>1.023285650853295</v>
+        <v>0.9982022233647522</v>
       </c>
       <c r="E15">
-        <v>1.028532782157986</v>
+        <v>0.9882488378449223</v>
       </c>
       <c r="F15">
-        <v>1.037381769880936</v>
+        <v>0.9847968480115351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027683017021596</v>
+        <v>1.037492187913528</v>
       </c>
       <c r="J15">
-        <v>1.024781643856691</v>
+        <v>1.003599348748178</v>
       </c>
       <c r="K15">
-        <v>1.026884533911313</v>
+        <v>1.013086006292649</v>
       </c>
       <c r="L15">
-        <v>1.032111880651652</v>
+        <v>1.00332263785023</v>
       </c>
       <c r="M15">
-        <v>1.04092800435887</v>
+        <v>0.9999377257007291</v>
       </c>
       <c r="N15">
-        <v>1.012340154676683</v>
+        <v>1.005264050729158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018668074748758</v>
+        <v>0.9761587528420478</v>
       </c>
       <c r="D16">
-        <v>1.023675738145677</v>
+        <v>1.000276970984324</v>
       </c>
       <c r="E16">
-        <v>1.029063347894142</v>
+        <v>0.9908617071837179</v>
       </c>
       <c r="F16">
-        <v>1.038067934560786</v>
+        <v>0.9881103117474278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027765662032011</v>
+        <v>1.038272744135044</v>
       </c>
       <c r="J16">
-        <v>1.025106300084319</v>
+        <v>1.005271361238082</v>
       </c>
       <c r="K16">
-        <v>1.027157758106464</v>
+        <v>1.014604563388378</v>
       </c>
       <c r="L16">
-        <v>1.032525766418207</v>
+        <v>1.005360770682445</v>
       </c>
       <c r="M16">
-        <v>1.041498093283502</v>
+        <v>1.002660288497148</v>
       </c>
       <c r="N16">
-        <v>1.01244767174945</v>
+        <v>1.00581908115456</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019011878368959</v>
+        <v>0.9779739226472585</v>
       </c>
       <c r="D17">
-        <v>1.023920293883821</v>
+        <v>1.001561859563993</v>
       </c>
       <c r="E17">
-        <v>1.029396355429605</v>
+        <v>0.992481619855518</v>
       </c>
       <c r="F17">
-        <v>1.038498708246974</v>
+        <v>0.9901643688335393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027816852033492</v>
+        <v>1.038751211690446</v>
       </c>
       <c r="J17">
-        <v>1.02530979377639</v>
+        <v>1.006305660634282</v>
       </c>
       <c r="K17">
-        <v>1.027328779904833</v>
+        <v>1.015542559032512</v>
       </c>
       <c r="L17">
-        <v>1.032785372276715</v>
+        <v>1.006622770330364</v>
       </c>
       <c r="M17">
-        <v>1.041855863584007</v>
+        <v>1.004347078444316</v>
       </c>
       <c r="N17">
-        <v>1.012515056898161</v>
+        <v>1.006162424430324</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019212430090238</v>
+        <v>0.9790242839148863</v>
       </c>
       <c r="D18">
-        <v>1.024062889688603</v>
+        <v>1.002305479374155</v>
       </c>
       <c r="E18">
-        <v>1.029590663943324</v>
+        <v>0.9934197922112571</v>
       </c>
       <c r="F18">
-        <v>1.038750100963661</v>
+        <v>0.9913539216584613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027846475420643</v>
+        <v>1.039026333601257</v>
       </c>
       <c r="J18">
-        <v>1.025428432187547</v>
+        <v>1.006903839689094</v>
       </c>
       <c r="K18">
-        <v>1.027428402284406</v>
+        <v>1.016084535553433</v>
       </c>
       <c r="L18">
-        <v>1.032936790721126</v>
+        <v>1.007353083589396</v>
       </c>
       <c r="M18">
-        <v>1.042064605412822</v>
+        <v>1.005323585496839</v>
       </c>
       <c r="N18">
-        <v>1.012554340693187</v>
+        <v>1.006360995096452</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01928081587741</v>
+        <v>0.9793810264814093</v>
       </c>
       <c r="D19">
-        <v>1.024111502742207</v>
+        <v>1.002558056845894</v>
       </c>
       <c r="E19">
-        <v>1.029656930106545</v>
+        <v>0.9937385654635366</v>
       </c>
       <c r="F19">
-        <v>1.038835841358549</v>
+        <v>0.9917581018977695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027856536367336</v>
+        <v>1.039119476867188</v>
       </c>
       <c r="J19">
-        <v>1.025468875289347</v>
+        <v>1.007106947436628</v>
       </c>
       <c r="K19">
-        <v>1.027462348560192</v>
+        <v>1.016268473292282</v>
       </c>
       <c r="L19">
-        <v>1.032988419576379</v>
+        <v>1.007601132816386</v>
       </c>
       <c r="M19">
-        <v>1.042135791210806</v>
+        <v>1.005655317642175</v>
       </c>
       <c r="N19">
-        <v>1.012567731909826</v>
+        <v>1.006428418515858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01897498974013</v>
+        <v>0.9777800455674803</v>
       </c>
       <c r="D20">
-        <v>1.023894060467789</v>
+        <v>1.001424609458075</v>
       </c>
       <c r="E20">
-        <v>1.029360619535346</v>
+        <v>0.9923085150027304</v>
       </c>
       <c r="F20">
-        <v>1.038452476883963</v>
+        <v>0.9899448771158632</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027811384119273</v>
+        <v>1.038700287584189</v>
       </c>
       <c r="J20">
-        <v>1.025287966616192</v>
+        <v>1.00619522129978</v>
       </c>
       <c r="K20">
-        <v>1.027310444502654</v>
+        <v>1.015442454995458</v>
       </c>
       <c r="L20">
-        <v>1.0327575195622</v>
+        <v>1.006487971769099</v>
       </c>
       <c r="M20">
-        <v>1.041817471955899</v>
+        <v>1.004166868459967</v>
       </c>
       <c r="N20">
-        <v>1.012507829260667</v>
+        <v>1.006125763190678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017980920182731</v>
+        <v>0.9724748302067112</v>
       </c>
       <c r="D21">
-        <v>1.02318655734239</v>
+        <v>0.9976701875704457</v>
       </c>
       <c r="E21">
-        <v>1.02839812065497</v>
+        <v>0.9875793409434923</v>
       </c>
       <c r="F21">
-        <v>1.037207648441028</v>
+        <v>0.9839477560714018</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027661831025151</v>
+        <v>1.03729049701388</v>
       </c>
       <c r="J21">
-        <v>1.024699158805494</v>
+        <v>1.003170212719309</v>
       </c>
       <c r="K21">
-        <v>1.026815043948112</v>
+        <v>1.012695833804876</v>
       </c>
       <c r="L21">
-        <v>1.032006781606406</v>
+        <v>1.002799910213755</v>
       </c>
       <c r="M21">
-        <v>1.040783297968024</v>
+        <v>0.999239761255868</v>
       </c>
       <c r="N21">
-        <v>1.012312836003719</v>
+        <v>1.005121599325715</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017356068392842</v>
+        <v>0.9690586442708621</v>
       </c>
       <c r="D22">
-        <v>1.022741287726856</v>
+        <v>0.9952542502454447</v>
       </c>
       <c r="E22">
-        <v>1.027793605927109</v>
+        <v>0.9845417070331395</v>
       </c>
       <c r="F22">
-        <v>1.036426150005383</v>
+        <v>0.9800947509538035</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027565690475808</v>
+        <v>1.036367114948636</v>
       </c>
       <c r="J22">
-        <v>1.024328453884678</v>
+        <v>1.001219624114128</v>
       </c>
       <c r="K22">
-        <v>1.026502387084785</v>
+        <v>1.010920311268837</v>
       </c>
       <c r="L22">
-        <v>1.031534722010906</v>
+        <v>1.000425744123183</v>
       </c>
       <c r="M22">
-        <v>1.040133622637817</v>
+        <v>0.9960711238915918</v>
       </c>
       <c r="N22">
-        <v>1.012190050782426</v>
+        <v>1.004474115488074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017687298717018</v>
+        <v>0.97087751755855</v>
       </c>
       <c r="D23">
-        <v>1.022977374216736</v>
+        <v>0.9965403765508851</v>
       </c>
       <c r="E23">
-        <v>1.028114008941824</v>
+        <v>0.9861582977777146</v>
       </c>
       <c r="F23">
-        <v>1.036840325480259</v>
+        <v>0.9821453835037083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027616856198664</v>
+        <v>1.036860189970662</v>
       </c>
       <c r="J23">
-        <v>1.024525018471667</v>
+        <v>1.002258410783402</v>
       </c>
       <c r="K23">
-        <v>1.026668243761449</v>
+        <v>1.011866273562022</v>
       </c>
       <c r="L23">
-        <v>1.031784973288884</v>
+        <v>1.00168974003812</v>
       </c>
       <c r="M23">
-        <v>1.040477975304275</v>
+        <v>0.9977578081083057</v>
       </c>
       <c r="N23">
-        <v>1.012255158993906</v>
+        <v>1.004818930434265</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018991658071525</v>
+        <v>0.9778676761707539</v>
       </c>
       <c r="D24">
-        <v>1.023905914372144</v>
+        <v>1.001486644872531</v>
       </c>
       <c r="E24">
-        <v>1.029376766828899</v>
+        <v>0.9923867542844887</v>
       </c>
       <c r="F24">
-        <v>1.038473366446127</v>
+        <v>0.9900440823220718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027813855560131</v>
+        <v>1.038723310219978</v>
       </c>
       <c r="J24">
-        <v>1.0252978295435</v>
+        <v>1.006245139846379</v>
       </c>
       <c r="K24">
-        <v>1.027318729888819</v>
+        <v>1.015487703562491</v>
       </c>
       <c r="L24">
-        <v>1.032770105021301</v>
+        <v>1.006548899295692</v>
       </c>
       <c r="M24">
-        <v>1.041834819293297</v>
+        <v>1.00424832032152</v>
       </c>
       <c r="N24">
-        <v>1.012511095183306</v>
+        <v>1.006142334058052</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02050595312487</v>
+        <v>0.9856521042593908</v>
       </c>
       <c r="D25">
-        <v>1.024981489057416</v>
+        <v>1.00699888138357</v>
       </c>
       <c r="E25">
-        <v>1.030844902080848</v>
+        <v>0.9993535682976563</v>
       </c>
       <c r="F25">
-        <v>1.040373504768707</v>
+        <v>0.9988772394892323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02803324576764</v>
+        <v>1.040730572172252</v>
       </c>
       <c r="J25">
-        <v>1.026192432829775</v>
+        <v>1.010672171863066</v>
       </c>
       <c r="K25">
-        <v>1.028068410558048</v>
+        <v>1.019489511679496</v>
       </c>
       <c r="L25">
-        <v>1.033913085691029</v>
+        <v>1.01196192758097</v>
       </c>
       <c r="M25">
-        <v>1.043411729855731</v>
+        <v>1.011493009908071</v>
       </c>
       <c r="N25">
-        <v>1.012807276805556</v>
+        <v>1.007611918404857</v>
       </c>
     </row>
   </sheetData>
